--- a/legislator/property/output/normal/蔡煌瑯_2012-04-27_財產申報表_tmpd4981.xlsx
+++ b/legislator/property/output/normal/蔡煌瑯_2012-04-27_財產申報表_tmpd4981.xlsx
@@ -19,9 +19,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="82">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="98">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮民生段00690000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮民生段00650000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮南光段05880003地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮南光段05880004地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區復興段一小段04120000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區復興段一小段03820000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮民生段00650001地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之124</t>
+  </si>
+  <si>
+    <t>蔡煌瑯</t>
+  </si>
+  <si>
+    <t>王琴賀</t>
+  </si>
+  <si>
+    <t>蔡煌鄉</t>
+  </si>
+  <si>
+    <t>75年06月05日</t>
+  </si>
+  <si>
+    <t>76年07月03日</t>
+  </si>
+  <si>
+    <t>91年08月30日</t>
+  </si>
+  <si>
+    <t>98年01月16日</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmpd4981</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,85 +159,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>南投縣埔里鎮民生段0069-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮民生段0065-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮南光段0588-0003 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮南光段0588-0004 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區復興段一小段 0412-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區復興段一小段 0382-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮民生段0065-0001 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 124</t>
-  </si>
-  <si>
-    <t>蔡煌瑯</t>
-  </si>
-  <si>
-    <t>王琴賀</t>
-  </si>
-  <si>
-    <t>蔡煌鄉</t>
-  </si>
-  <si>
-    <t>75年06月 05日</t>
-  </si>
-  <si>
-    <t>76年07月 03日</t>
-  </si>
-  <si>
-    <t>91年08月 30日</t>
-  </si>
-  <si>
-    <t>98年01月 16日</t>
-  </si>
-  <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮南光段00347-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區復興段00924-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區復興段00978-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區復興段00979-000 建號</t>
-  </si>
-  <si>
-    <t>10000分之 126</t>
+    <t>南投縣埔里鎮南光段00347000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區復興段00924000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區復興段00978000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區復興段00979000建號</t>
+  </si>
+  <si>
+    <t>10000分之126</t>
   </si>
   <si>
     <t>蔡煌瑯.</t>
@@ -135,10 +186,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>自用小汽車（TOYOTA型號： ALTIS)</t>
-  </si>
-  <si>
-    <t>97年02月 29日</t>
+    <t>自用小汽車（TOYOTA型號：ALTIS)</t>
+  </si>
+  <si>
+    <t>97年02月29日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -213,13 +264,13 @@
     <t>美利外幣終生還本型保險</t>
   </si>
   <si>
-    <t>保單號碼：649700013402自 96年1月11日起迄今，20年 期(可隨時終止）</t>
-  </si>
-  <si>
-    <t>保單號碼•• 649700007213自 96年1月11日起迄今，20年 期(可隨時終止）</t>
-  </si>
-  <si>
-    <t>保單號碼：1025099898自101 年1月18日起迄今，6年期</t>
+    <t>保單號碼：649700013402自96年1月11日起迄今20年期(可隨時終止）</t>
+  </si>
+  <si>
+    <t>保單號碼649700007213自96年1月11日起迄今20年期(可隨時終止）</t>
+  </si>
+  <si>
+    <t>保單號碼：1025099898自101年1月18日起迄今6年期</t>
   </si>
   <si>
     <t>債務人</t>
@@ -243,25 +294,22 @@
     <t>信用貸款</t>
   </si>
   <si>
-    <t>台中商業銀行埔里分行 南投縣埔里鎮西康路</t>
-  </si>
-  <si>
-    <t>臺灣銀行 臺北市中正區重慶南路</t>
-  </si>
-  <si>
-    <t>台中商業銀行埔里分行 南投縣、埔里鎮西康路</t>
-  </si>
-  <si>
-    <t>95年01月 23日</t>
-  </si>
-  <si>
-    <t>98年11月 16日</t>
-  </si>
-  <si>
-    <t>99年01月 15日</t>
-  </si>
-  <si>
-    <t>100年01月 19曰</t>
+    <t>台中商業銀行埔里分行南投縣埔里鎮西康路</t>
+  </si>
+  <si>
+    <t>臺灣銀行臺北市中正區重慶南路</t>
+  </si>
+  <si>
+    <t>95年01月23日</t>
+  </si>
+  <si>
+    <t>98年11月16日</t>
+  </si>
+  <si>
+    <t>99年01月15日</t>
+  </si>
+  <si>
+    <t>100年01月19曰</t>
   </si>
   <si>
     <t>設定</t>
@@ -623,13 +671,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,187 +699,355 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>64.85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2">
         <v>700315</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>752</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>99.28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2">
         <v>760703</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>752</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>140</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2">
         <v>1540000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>752</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>140</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2">
         <v>1540000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>752</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2">
         <v>31992</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>752</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>1759</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2">
         <v>6560187</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2">
+        <v>752</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>97.69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2">
         <v>224687</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2">
+        <v>752</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -849,25 +1065,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -875,22 +1091,22 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2">
         <v>245.03</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2">
         <v>714000</v>
@@ -901,22 +1117,22 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2">
         <v>120.68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2">
         <v>18808851</v>
@@ -927,22 +1143,22 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
         <v>1730.85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2">
         <v>3345090</v>
@@ -953,22 +1169,22 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
         <v>685.44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2">
         <v>1346067</v>
@@ -989,22 +1205,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1012,19 +1228,19 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>1800</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>850000</v>
@@ -1045,19 +1261,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1065,16 +1281,16 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>359122</v>
@@ -1085,16 +1301,16 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
         <v>233640</v>
@@ -1105,16 +1321,16 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2">
         <v>1099</v>
@@ -1125,16 +1341,16 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
         <v>73427</v>
@@ -1145,16 +1361,16 @@
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2">
         <v>300</v>
@@ -1165,16 +1381,16 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>387</v>
@@ -1185,16 +1401,16 @@
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>23682</v>
@@ -1205,16 +1421,16 @@
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2">
         <v>9442</v>
@@ -1225,16 +1441,16 @@
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2">
         <v>61315</v>
@@ -1245,16 +1461,16 @@
         <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2">
         <v>42119</v>
@@ -1265,16 +1481,16 @@
         <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2">
         <v>374281</v>
@@ -1285,16 +1501,16 @@
         <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2">
         <v>60809</v>
@@ -1305,16 +1521,16 @@
         <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2">
         <v>672057</v>
@@ -1325,16 +1541,16 @@
         <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2">
         <v>713488</v>
@@ -1345,16 +1561,16 @@
         <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2">
         <v>283689</v>
@@ -1375,16 +1591,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1392,16 +1608,16 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1409,16 +1625,16 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1426,16 +1642,16 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1453,22 +1669,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1476,22 +1692,22 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>4054661</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1499,22 +1715,22 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>344914</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1522,22 +1738,22 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2">
         <v>14193131</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1545,22 +1761,22 @@
         <v>121</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2">
         <v>955272</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1568,22 +1784,22 @@
         <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2">
         <v>3000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡煌瑯_2012-04-27_財產申報表_tmpd4981.xlsx
+++ b/legislator/property/output/normal/蔡煌瑯_2012-04-27_財產申報表_tmpd4981.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>南投縣埔里鎮民生段00690000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>南投縣埔里鎮民生段00650000地號</t>
@@ -99,9 +102,6 @@
     <t>蔡煌鄉</t>
   </si>
   <si>
-    <t>75年06月05日</t>
-  </si>
-  <si>
     <t>76年07月03日</t>
   </si>
   <si>
@@ -111,9 +111,6 @@
     <t>98年01月16日</t>
   </si>
   <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
     <t>買賣</t>
   </si>
   <si>
@@ -138,27 +135,6 @@
     <t>tmpd4981</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>南投縣埔里鎮南光段00347000建號</t>
   </si>
   <si>
@@ -177,36 +153,21 @@
     <t>蔡煌瑯.</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>自用小汽車（TOYOTA型號：ALTIS)</t>
   </si>
   <si>
     <t>97年02月29日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台中商業銀行</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>彰化商業銀行</t>
   </si>
   <si>
@@ -225,9 +186,6 @@
     <t>台北富邦商業銀行</t>
   </si>
   <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>支票存款</t>
   </si>
   <si>
@@ -237,72 +195,45 @@
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>三商美邦人壽</t>
   </si>
   <si>
+    <t>世紀理財變額萬能終身壽險</t>
+  </si>
+  <si>
+    <t>保單號碼：649700013402自96年1月11日起迄今20年期(可隨時終止）</t>
+  </si>
+  <si>
     <t>新光人壽</t>
   </si>
   <si>
-    <t>世紀理財變額萬能終身壽險</t>
-  </si>
-  <si>
     <t>美利外幣終生還本型保險</t>
   </si>
   <si>
-    <t>保單號碼：649700013402自96年1月11日起迄今20年期(可隨時終止）</t>
-  </si>
-  <si>
     <t>保單號碼649700007213自96年1月11日起迄今20年期(可隨時終止）</t>
   </si>
   <si>
     <t>保單號碼：1025099898自101年1月18日起迄今6年期</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>台中商業銀行埔里分行南投縣埔里鎮西康路</t>
+  </si>
+  <si>
+    <t>95年01月23日</t>
+  </si>
+  <si>
+    <t>設定</t>
+  </si>
+  <si>
     <t>信用貸款</t>
   </si>
   <si>
-    <t>台中商業銀行埔里分行南投縣埔里鎮西康路</t>
-  </si>
-  <si>
     <t>臺灣銀行臺北市中正區重慶南路</t>
   </si>
   <si>
-    <t>95年01月23日</t>
-  </si>
-  <si>
     <t>98年11月16日</t>
   </si>
   <si>
@@ -310,9 +241,6 @@
   </si>
   <si>
     <t>100年01月19曰</t>
-  </si>
-  <si>
-    <t>設定</t>
   </si>
 </sst>
 </file>
@@ -671,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,334 +648,329 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>64.85</v>
+        <v>99.28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="2">
-        <v>700315</v>
+        <v>760703</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>752</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>99.28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>99.28</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="2">
-        <v>760703</v>
+        <v>1540000</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>752</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>140</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2">
         <v>1540000</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>752</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="2">
-        <v>1540000</v>
+        <v>31992</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>752</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0124</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>10</v>
+        <v>1759</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2">
-        <v>31992</v>
+        <v>6560187</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2">
         <v>752</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0124</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>21.8116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>1759</v>
+        <v>97.69</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2">
-        <v>6560187</v>
+        <v>224687</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M7" s="2">
         <v>752</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>97.69</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="2">
-        <v>224687</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="2">
-        <v>752</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="2">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +980,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1065,128 +988,102 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C1" s="1">
+        <v>245.03</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="H1" s="1">
+        <v>714000</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
-        <v>245.03</v>
+        <v>120.68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2">
-        <v>714000</v>
+        <v>18808851</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
-        <v>120.68</v>
+        <v>1730.85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2">
-        <v>18808851</v>
+        <v>3345090</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
-        <v>1730.85</v>
+        <v>685.44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2">
-        <v>3345090</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2">
-        <v>685.44</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2">
         <v>1346067</v>
       </c>
     </row>
@@ -1197,7 +1094,411 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1">
+        <v>850000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1">
+        <v>359122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2">
+        <v>233640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>73427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>23682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2">
+        <v>61315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>64</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2">
+        <v>42119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>65</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>374281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2">
+        <v>60809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2">
+        <v>672057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>68</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2">
+        <v>713488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>69</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2">
+        <v>283689</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>107</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1205,601 +1506,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4054661</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1800</v>
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="E2" s="2">
+        <v>344914</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2">
-        <v>850000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>55</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2">
-        <v>359122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>56</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2">
-        <v>233640</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>57</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>58</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2">
-        <v>73427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>59</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>60</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>61</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2">
-        <v>23682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>62</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2">
-        <v>9442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>63</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2">
-        <v>61315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>64</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2">
-        <v>42119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>65</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="2">
-        <v>374281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>66</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2">
-        <v>60809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>67</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="2">
-        <v>672057</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>68</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="2">
-        <v>713488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>69</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="2">
-        <v>283689</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>105</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>106</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>107</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>117</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4054661</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2">
-        <v>344914</v>
+        <v>14193131</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2">
-        <v>14193131</v>
+        <v>955272</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2">
-        <v>955272</v>
+        <v>3000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>122</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡煌瑯_2012-04-27_財產申報表_tmpd4981.xlsx
+++ b/legislator/property/output/normal/蔡煌瑯_2012-04-27_財產申報表_tmpd4981.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>南投縣埔里鎮民生段00690000地號</t>
+  </si>
+  <si>
     <t>南投縣埔里鎮民生段00650000地號</t>
   </si>
   <si>
@@ -102,6 +105,9 @@
     <t>蔡煌鄉</t>
   </si>
   <si>
+    <t>75年06月05日</t>
+  </si>
+  <si>
     <t>76年07月03日</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
   </si>
   <si>
     <t>98年01月16日</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
   </si>
   <si>
     <t>買賣</t>
@@ -599,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,113 +666,113 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>99.28</v>
+        <v>64.85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2">
-        <v>760703</v>
+        <v>700315</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2">
         <v>752</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>99.28</v>
+        <v>64.85</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>140</v>
+        <v>99.28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2">
-        <v>1540000</v>
+        <v>760703</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2">
         <v>752</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>140</v>
+        <v>99.28</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -772,40 +781,40 @@
         <v>140</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2">
         <v>1540000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2">
         <v>752</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
@@ -816,160 +825,213 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2">
-        <v>31992</v>
+        <v>1540000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2">
         <v>752</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>0.0124</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1759</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2">
-        <v>6560187</v>
+        <v>31992</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" s="2">
         <v>752</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>0.0124</v>
       </c>
       <c r="Q6" s="2">
-        <v>21.8116</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>97.69</v>
+        <v>1759</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="2">
-        <v>224687</v>
+        <v>6560187</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M7" s="2">
         <v>752</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0124</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>21.8116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>97.69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2">
+        <v>224687</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="2">
+      <c r="J8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>752</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="2">
         <v>20</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P8" s="2">
         <v>1</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q8" s="2">
         <v>97.69</v>
       </c>
     </row>
@@ -980,111 +1042,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2">
+        <v>245.03</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2">
+        <v>714000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1">
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>752</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="2">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>245.03</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1">
-        <v>714000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2">
         <v>120.68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2">
-        <v>18808851</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1730.85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2">
+        <v>18808851</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>752</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="2">
+        <v>26</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>120.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1730.85</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2">
         <v>3345090</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>752</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="2">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0124</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>21.46254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2">
         <v>685.44</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2">
         <v>1346067</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>752</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="2">
+        <v>28</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0126</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>8.636544</v>
       </c>
     </row>
   </sheetData>
@@ -1094,29 +1317,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1">
         <v>1800</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2">
         <v>850000</v>
       </c>
     </row>
@@ -1127,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1135,16 +1381,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1">
         <v>359122</v>
@@ -1152,281 +1398,301 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
-        <v>233640</v>
+        <v>359122</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2">
-        <v>1099</v>
+        <v>233640</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
-        <v>73427</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2">
-        <v>300</v>
+        <v>73427</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2">
-        <v>387</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2">
-        <v>23682</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2">
-        <v>9442</v>
+        <v>23682</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2">
-        <v>61315</v>
+        <v>9442</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2">
-        <v>42119</v>
+        <v>61315</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2">
-        <v>374281</v>
+        <v>42119</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2">
-        <v>60809</v>
+        <v>374281</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2">
-        <v>672057</v>
+        <v>60809</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2">
-        <v>713488</v>
+        <v>672057</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
+        <v>68</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2">
+        <v>713488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
         <v>69</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2">
         <v>283689</v>
       </c>
     </row>
@@ -1437,7 +1703,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1445,27 +1711,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
@@ -1476,7 +1742,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>61</v>
@@ -1485,10 +1751,27 @@
         <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>107</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1506,114 +1789,137 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>4054661</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
-        <v>344914</v>
+        <v>4054661</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2">
-        <v>14193131</v>
+        <v>344914</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2">
-        <v>955272</v>
+        <v>14193131</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>121</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>955272</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>122</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="E6" s="2">
         <v>3000000</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>68</v>
+      <c r="F6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡煌瑯_2012-04-27_財產申報表_tmpd4981.xlsx
+++ b/legislator/property/output/normal/蔡煌瑯_2012-04-27_財產申報表_tmpd4981.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>蔡煌瑯.</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>自用小汽車（TOYOTA型號：ALTIS)</t>
@@ -1317,38 +1320,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1">
-        <v>1800</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1">
-        <v>850000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>1800</v>
@@ -1357,13 +1381,34 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="2">
         <v>850000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>752</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1381,13 +1426,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
@@ -1401,13 +1446,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -1421,13 +1466,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -1441,13 +1486,13 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -1461,13 +1506,13 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
@@ -1481,13 +1526,13 @@
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -1501,13 +1546,13 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -1521,13 +1566,13 @@
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -1541,13 +1586,13 @@
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -1561,13 +1606,13 @@
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -1581,13 +1626,13 @@
         <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -1601,13 +1646,13 @@
         <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -1621,13 +1666,13 @@
         <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -1641,13 +1686,13 @@
         <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -1661,13 +1706,13 @@
         <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
@@ -1681,13 +1726,13 @@
         <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
@@ -1711,16 +1756,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1728,16 +1773,16 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1745,16 +1790,16 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1762,16 +1807,16 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1789,22 +1834,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1">
         <v>4054661</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1812,22 +1857,22 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>4054661</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1835,22 +1880,22 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2">
         <v>344914</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1858,13 +1903,13 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2">
         <v>14193131</v>
@@ -1873,7 +1918,7 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1881,22 +1926,22 @@
         <v>121</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2">
         <v>955272</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1904,22 +1949,22 @@
         <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2">
         <v>3000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡煌瑯_2012-04-27_財產申報表_tmpd4981.xlsx
+++ b/legislator/property/output/normal/蔡煌瑯_2012-04-27_財產申報表_tmpd4981.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -162,6 +162,9 @@
     <t>蔡煌瑯.</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -169,6 +172,9 @@
   </si>
   <si>
     <t>97年02月29日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台中商業銀行</t>
@@ -1127,7 +1133,7 @@
         <v>714000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>38</v>
@@ -1180,7 +1186,7 @@
         <v>18808851</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>38</v>
@@ -1233,7 +1239,7 @@
         <v>3345090</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>38</v>
@@ -1286,7 +1292,7 @@
         <v>1346067</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>38</v>
@@ -1331,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1372,7 +1378,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <v>1800</v>
@@ -1381,7 +1387,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>33</v>
@@ -1390,7 +1396,7 @@
         <v>850000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>38</v>
@@ -1426,13 +1432,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
@@ -1446,13 +1452,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -1466,13 +1472,13 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -1486,13 +1492,13 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -1506,13 +1512,13 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
@@ -1526,13 +1532,13 @@
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -1546,13 +1552,13 @@
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -1566,13 +1572,13 @@
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -1586,13 +1592,13 @@
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -1606,13 +1612,13 @@
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -1626,13 +1632,13 @@
         <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -1646,13 +1652,13 @@
         <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -1666,13 +1672,13 @@
         <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -1686,13 +1692,13 @@
         <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -1706,13 +1712,13 @@
         <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
@@ -1726,13 +1732,13 @@
         <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
@@ -1756,16 +1762,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1773,16 +1779,16 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1790,16 +1796,16 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1807,16 +1813,16 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1834,22 +1840,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1">
         <v>4054661</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1857,22 +1863,22 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2">
         <v>4054661</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1880,22 +1886,22 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2">
         <v>344914</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1903,13 +1909,13 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2">
         <v>14193131</v>
@@ -1918,7 +1924,7 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1926,22 +1932,22 @@
         <v>121</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2">
         <v>955272</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1949,22 +1955,22 @@
         <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2">
         <v>3000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡煌瑯_2012-04-27_財產申報表_tmpd4981.xlsx
+++ b/legislator/property/output/normal/蔡煌瑯_2012-04-27_財產申報表_tmpd4981.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -177,40 +177,52 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台中商業銀行</t>
   </si>
   <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>第一商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>第一商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>三商美邦人壽</t>
@@ -1424,13 +1436,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1441,24 +1453,45 @@
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1">
-        <v>359122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -1466,19 +1499,40 @@
       <c r="F2" s="2">
         <v>359122</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>752</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -1486,19 +1540,40 @@
       <c r="F3" s="2">
         <v>233640</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>752</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -1506,19 +1581,40 @@
       <c r="F4" s="2">
         <v>1099</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>752</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
@@ -1526,19 +1622,40 @@
       <c r="F5" s="2">
         <v>73427</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>752</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -1546,19 +1663,40 @@
       <c r="F6" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>752</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -1566,19 +1704,40 @@
       <c r="F7" s="2">
         <v>387</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>752</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -1586,19 +1745,40 @@
       <c r="F8" s="2">
         <v>23682</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>752</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -1606,19 +1786,40 @@
       <c r="F9" s="2">
         <v>9442</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>752</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -1626,19 +1827,40 @@
       <c r="F10" s="2">
         <v>61315</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>752</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -1646,19 +1868,40 @@
       <c r="F11" s="2">
         <v>42119</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>752</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -1666,19 +1909,40 @@
       <c r="F12" s="2">
         <v>374281</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>752</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -1686,19 +1950,40 @@
       <c r="F13" s="2">
         <v>60809</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>752</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>25</v>
@@ -1706,19 +1991,40 @@
       <c r="F14" s="2">
         <v>672057</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>752</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
@@ -1726,25 +2032,67 @@
       <c r="F15" s="2">
         <v>713488</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2">
+        <v>752</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="2">
         <v>283689</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>752</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="2">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1762,16 +2110,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1779,16 +2127,16 @@
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1796,16 +2144,16 @@
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1813,16 +2161,16 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1840,22 +2188,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1">
         <v>4054661</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1863,22 +2211,22 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>4054661</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1886,22 +2234,22 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2">
         <v>344914</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1909,13 +2257,13 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>14193131</v>
@@ -1924,7 +2272,7 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1932,22 +2280,22 @@
         <v>121</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2">
         <v>955272</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1955,22 +2303,22 @@
         <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2">
         <v>3000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/蔡煌瑯_2012-04-27_財產申報表_tmpd4981.xlsx
+++ b/legislator/property/output/normal/蔡煌瑯_2012-04-27_財產申報表_tmpd4981.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -225,52 +225,58 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>三商美邦人壽</t>
   </si>
   <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
     <t>世紀理財變額萬能終身壽險</t>
   </si>
   <si>
-    <t>保單號碼：649700013402自96年1月11日起迄今20年期(可隨時終止）</t>
-  </si>
-  <si>
-    <t>新光人壽</t>
-  </si>
-  <si>
     <t>美利外幣終生還本型保險</t>
   </si>
   <si>
-    <t>保單號碼649700007213自96年1月11日起迄今20年期(可隨時終止）</t>
-  </si>
-  <si>
-    <t>保單號碼：1025099898自101年1月18日起迄今6年期</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>信用貸款</t>
+  </si>
+  <si>
     <t>台中商業銀行埔里分行南投縣埔里鎮西康路</t>
   </si>
   <si>
+    <t>臺灣銀行臺北市中正區重慶南路</t>
+  </si>
+  <si>
     <t>95年01月23日</t>
   </si>
   <si>
+    <t>98年11月16日</t>
+  </si>
+  <si>
+    <t>99年01月15日</t>
+  </si>
+  <si>
+    <t>100年01月19曰</t>
+  </si>
+  <si>
     <t>設定</t>
   </si>
   <si>
-    <t>信用貸款</t>
-  </si>
-  <si>
-    <t>臺灣銀行臺北市中正區重慶南路</t>
-  </si>
-  <si>
-    <t>98年11月16日</t>
-  </si>
-  <si>
-    <t>99年01月15日</t>
-  </si>
-  <si>
-    <t>100年01月19曰</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2102,52 +2108,88 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>752</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -2155,13 +2197,31 @@
       <c r="E3" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>752</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>72</v>
@@ -2170,7 +2230,25 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2">
+        <v>752</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2180,67 +2258,109 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4054661</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
         <v>4054661</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>752</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>344914</v>
@@ -2249,21 +2369,42 @@
         <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>752</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>14193131</v>
@@ -2272,21 +2413,42 @@
         <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>752</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>121</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2">
         <v>955272</v>
@@ -2295,21 +2457,42 @@
         <v>82</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2">
+        <v>752</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2">
         <v>3000000</v>
@@ -2318,7 +2501,28 @@
         <v>83</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2">
+        <v>752</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="2">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
